--- a/tuning_data/airflow_vs_rpm.xlsx
+++ b/tuning_data/airflow_vs_rpm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekti\E78_14T\tuning_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF98896-04D6-4070-A050-4C2F3C974E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0240CF7-4F48-459C-BD75-304269B7A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9F5B7038-E586-458D-BDCB-55B60856BE4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9F5B7038-E586-458D-BDCB-55B60856BE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RPM</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>180 kPa</t>
+  </si>
+  <si>
+    <t>280 kPa E20</t>
+  </si>
+  <si>
+    <t>240 kPa E20 3</t>
+  </si>
+  <si>
+    <t>240 kPa E20 2</t>
   </si>
 </sst>
 </file>
@@ -129,8 +138,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$2</c:f>
@@ -145,7 +154,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -154,96 +163,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$AB$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$AB$2</c:f>
@@ -335,15 +254,135 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+              <c16:uniqueId val="{00000021-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AB$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7707</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7736</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7751</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7782</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7843</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8163</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8474</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$4</c:f>
@@ -458,9 +497,627 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>230 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$AB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7722</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8908</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9756</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9975</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>180 kPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6849</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7575</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8639</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8849</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E655-4B27-A54A-72887C60A99E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>280 kPa E20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5873</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6884</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7662</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8583</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8752</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9345</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9876</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10050</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E655-4B27-A54A-72887C60A99E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>240 kPa E20 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5730</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8213</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9049</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9389</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+              <c16:uniqueId val="{00000002-E655-4B27-A54A-72887C60A99E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>240 kPa E20 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6688</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8583</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9478</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD1D-4323-8FBC-82BAAA9636DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -479,21 +1136,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3</c15:sqref>
+                          <c15:sqref>Sheet1!$A$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>E 2016</c:v>
+                        <c:v>RPM</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -501,7 +1158,7 @@
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -510,7 +1167,7 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
-                <c:cat>
+                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -605,378 +1262,11 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AB$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>4479</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4098</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4700</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5194</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5641</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5917</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6269</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6309</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>6389</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6677</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>6993</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>7312</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>7434</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>7561</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>7707</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>7736</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>7751</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7782</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>7843</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>8146</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>8163</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>8350</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>8438</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>8474</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>8368</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>8230</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000021-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>230 kPa</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AB$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>4993</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4149</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4449</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4694</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5076</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5361</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5571</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5805</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5952</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6220</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>6493</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>6932</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>7380</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>7722</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>8130</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>8474</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>8474</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>8602</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>8658</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>8714</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>8908</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>9174</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>9302</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>9523</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>9756</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>9975</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>10126</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000024-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>180 kPa</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="7030A0"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AB$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>4597</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4171</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4449</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4744</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5037</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5305</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5571</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5797</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5979</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6153</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>6462</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>6849</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>7194</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>7366</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>7490</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>7575</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>7692</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7766</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>7889</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>7984</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>8213</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>8403</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>8639</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>8849</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>8968</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>9174</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>9324</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000025-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+                    <c16:uniqueId val="{00000006-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2068,18 +2358,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90606A4-C663-4C46-8917-6C946987C1D5}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2455,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2251,7 +2541,7 @@
         <v>8714</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2624,7 @@
         <v>8230</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2710,7 @@
         <v>9950</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2506,7 +2796,7 @@
         <v>10126</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2590,6 +2880,261 @@
       </c>
       <c r="AB6">
         <v>9324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4981</v>
+      </c>
+      <c r="C7">
+        <v>5326</v>
+      </c>
+      <c r="D7">
+        <v>4434</v>
+      </c>
+      <c r="E7">
+        <v>5649</v>
+      </c>
+      <c r="F7">
+        <v>5369</v>
+      </c>
+      <c r="G7">
+        <v>5813</v>
+      </c>
+      <c r="H7">
+        <v>5839</v>
+      </c>
+      <c r="I7">
+        <v>5625</v>
+      </c>
+      <c r="J7">
+        <v>5813</v>
+      </c>
+      <c r="K7">
+        <v>5847</v>
+      </c>
+      <c r="L7">
+        <v>5873</v>
+      </c>
+      <c r="M7">
+        <v>5839</v>
+      </c>
+      <c r="N7">
+        <v>6884</v>
+      </c>
+      <c r="O7">
+        <v>7662</v>
+      </c>
+      <c r="P7">
+        <v>8196</v>
+      </c>
+      <c r="Q7">
+        <v>8492</v>
+      </c>
+      <c r="R7">
+        <v>8583</v>
+      </c>
+      <c r="S7">
+        <v>8281</v>
+      </c>
+      <c r="T7">
+        <v>8474</v>
+      </c>
+      <c r="U7">
+        <v>8752</v>
+      </c>
+      <c r="V7">
+        <v>9111</v>
+      </c>
+      <c r="W7">
+        <v>9345</v>
+      </c>
+      <c r="X7">
+        <v>9661</v>
+      </c>
+      <c r="Y7">
+        <v>9876</v>
+      </c>
+      <c r="Z7">
+        <v>10050</v>
+      </c>
+      <c r="AA7">
+        <v>10101</v>
+      </c>
+      <c r="AB7">
+        <v>10152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5141</v>
+      </c>
+      <c r="C8">
+        <v>4907</v>
+      </c>
+      <c r="D8">
+        <v>4968</v>
+      </c>
+      <c r="E8">
+        <v>5594</v>
+      </c>
+      <c r="F8">
+        <v>5141</v>
+      </c>
+      <c r="G8">
+        <v>5934</v>
+      </c>
+      <c r="H8">
+        <v>5610</v>
+      </c>
+      <c r="I8">
+        <v>5730</v>
+      </c>
+      <c r="J8">
+        <v>5706</v>
+      </c>
+      <c r="K8">
+        <v>5722</v>
+      </c>
+      <c r="L8">
+        <v>6191</v>
+      </c>
+      <c r="M8">
+        <v>6106</v>
+      </c>
+      <c r="N8">
+        <v>6289</v>
+      </c>
+      <c r="O8">
+        <v>6557</v>
+      </c>
+      <c r="P8">
+        <v>6908</v>
+      </c>
+      <c r="Q8">
+        <v>7272</v>
+      </c>
+      <c r="R8">
+        <v>7707</v>
+      </c>
+      <c r="S8">
+        <v>8213</v>
+      </c>
+      <c r="T8">
+        <v>8438</v>
+      </c>
+      <c r="U8">
+        <v>8602</v>
+      </c>
+      <c r="V8">
+        <v>8888</v>
+      </c>
+      <c r="W8">
+        <v>9049</v>
+      </c>
+      <c r="X8">
+        <v>9195</v>
+      </c>
+      <c r="Y8">
+        <v>9389</v>
+      </c>
+      <c r="Z8">
+        <v>9615</v>
+      </c>
+      <c r="AA8">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4301</v>
+      </c>
+      <c r="C9">
+        <v>5390</v>
+      </c>
+      <c r="D9">
+        <v>5319</v>
+      </c>
+      <c r="E9">
+        <v>5398</v>
+      </c>
+      <c r="F9">
+        <v>5681</v>
+      </c>
+      <c r="G9">
+        <v>6116</v>
+      </c>
+      <c r="H9">
+        <v>6163</v>
+      </c>
+      <c r="I9">
+        <v>6472</v>
+      </c>
+      <c r="J9">
+        <v>6700</v>
+      </c>
+      <c r="K9">
+        <v>6051</v>
+      </c>
+      <c r="L9">
+        <v>6600</v>
+      </c>
+      <c r="M9">
+        <v>6688</v>
+      </c>
+      <c r="N9">
+        <v>7285</v>
+      </c>
+      <c r="O9">
+        <v>7920</v>
+      </c>
+      <c r="P9">
+        <v>8196</v>
+      </c>
+      <c r="Q9">
+        <v>8403</v>
+      </c>
+      <c r="R9">
+        <v>8474</v>
+      </c>
+      <c r="S9">
+        <v>8583</v>
+      </c>
+      <c r="T9">
+        <v>8695</v>
+      </c>
+      <c r="U9">
+        <v>8771</v>
+      </c>
+      <c r="V9">
+        <v>8968</v>
+      </c>
+      <c r="W9">
+        <v>9111</v>
+      </c>
+      <c r="X9">
+        <v>9302</v>
+      </c>
+      <c r="Y9">
+        <v>9478</v>
+      </c>
+      <c r="Z9">
+        <v>9638</v>
+      </c>
+      <c r="AA9">
+        <v>9803</v>
+      </c>
+      <c r="AB9">
+        <v>9900</v>
       </c>
     </row>
   </sheetData>

--- a/tuning_data/airflow_vs_rpm.xlsx
+++ b/tuning_data/airflow_vs_rpm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekti\E78_14T\tuning_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0240CF7-4F48-459C-BD75-304269B7A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E233ED-04BE-45A0-A3F0-37F69CF8666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9F5B7038-E586-458D-BDCB-55B60856BE4E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9F5B7038-E586-458D-BDCB-55B60856BE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RPM</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>240 kPa E20 2</t>
+  </si>
+  <si>
+    <t>Cam 240 kPa</t>
   </si>
 </sst>
 </file>
@@ -138,6 +141,129 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -627,15 +753,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>180 kPa</c:v>
+                  <c:v>Cam 240 kPa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -643,130 +769,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$AB$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>4597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4171</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4449</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5037</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5979</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6153</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6462</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6849</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7194</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7366</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7490</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7692</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7766</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7984</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8213</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8403</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8639</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8849</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8968</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9174</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E655-4B27-A54A-72887C60A99E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>280 kPa E20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -779,212 +782,90 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AB$7</c:f>
+              <c:f>Sheet1!$B$10:$AB$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>4981</c:v>
+                  <c:v>3883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5326</c:v>
+                  <c:v>5312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4434</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5649</c:v>
+                  <c:v>5657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5369</c:v>
+                  <c:v>5442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5813</c:v>
+                  <c:v>6088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5839</c:v>
+                  <c:v>6191</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5813</c:v>
+                  <c:v>5610</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5847</c:v>
+                  <c:v>5788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5873</c:v>
+                  <c:v>5970</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5839</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6884</c:v>
+                  <c:v>6379</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7662</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>8196</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>8492</c:v>
+                  <c:v>8097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8583</c:v>
+                  <c:v>8350</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8281</c:v>
+                  <c:v>8474</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8474</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8752</c:v>
+                  <c:v>8583</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9345</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9661</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9876</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10101</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E655-4B27-A54A-72887C60A99E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>240 kPa E20 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$AB$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>5141</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5594</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5141</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5934</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5610</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5730</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5706</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5722</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6191</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6557</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6908</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7272</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7707</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8213</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8438</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8602</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8888</c:v>
+                  <c:v>8810</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9195</c:v>
+                  <c:v>9302</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9389</c:v>
+                  <c:v>9478</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9615</c:v>
+                  <c:v>9708</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9546</c:v>
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,132 +873,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E655-4B27-A54A-72887C60A99E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>240 kPa E20 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$AB$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>4301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5390</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5681</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6116</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6163</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6472</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6051</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6688</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7285</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7920</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8196</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8403</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8474</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8583</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8695</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8771</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8968</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9111</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9302</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9478</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9638</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9803</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD1D-4323-8FBC-82BAAA9636DD}"/>
+              <c16:uniqueId val="{00000000-E303-46CE-B68A-6D62561C4D98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1136,21 +892,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="5"/>
+                <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                          <c15:sqref>Sheet1!$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>RPM</c:v>
+                        <c:v>180 kPa</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1158,7 +914,7 @@
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:srgbClr val="7030A0"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -1172,7 +928,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$AB$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AB$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1180,85 +936,85 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="27"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>4597</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1200</c:v>
+                        <c:v>4171</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1400</c:v>
+                        <c:v>4449</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1600</c:v>
+                        <c:v>4744</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1800</c:v>
+                        <c:v>5037</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2000</c:v>
+                        <c:v>5305</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2200</c:v>
+                        <c:v>5571</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2400</c:v>
+                        <c:v>5797</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2500</c:v>
+                        <c:v>5979</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2600</c:v>
+                        <c:v>6153</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2800</c:v>
+                        <c:v>6462</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3000</c:v>
+                        <c:v>6849</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>3200</c:v>
+                        <c:v>7194</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>3400</c:v>
+                        <c:v>7366</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>3600</c:v>
+                        <c:v>7490</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>3800</c:v>
+                        <c:v>7575</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>3900</c:v>
+                        <c:v>7692</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>4000</c:v>
+                        <c:v>7766</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>4100</c:v>
+                        <c:v>7889</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>4200</c:v>
+                        <c:v>7984</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>4400</c:v>
+                        <c:v>8213</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>4800</c:v>
+                        <c:v>8403</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>5200</c:v>
+                        <c:v>8639</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>5600</c:v>
+                        <c:v>8849</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>6000</c:v>
+                        <c:v>8968</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>6500</c:v>
+                        <c:v>9174</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>7000</c:v>
+                        <c:v>9324</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1266,7 +1022,421 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-47D4-43A7-AFE9-3C20E0A7BAC0}"/>
+                    <c16:uniqueId val="{00000000-E655-4B27-A54A-72887C60A99E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>280 kPa E20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$7:$AB$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>4981</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5326</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4434</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5649</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5369</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5813</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5839</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5625</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5813</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5847</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5873</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5839</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6884</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7662</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8196</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8492</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8583</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8281</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8474</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8752</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>9111</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9345</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9661</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9876</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>10050</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10101</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>10152</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-E655-4B27-A54A-72887C60A99E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>240 kPa E20 2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$8:$AB$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>5141</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4907</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4968</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5594</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5141</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5934</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5610</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5730</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5706</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5722</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6191</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6106</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6289</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6557</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6908</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7272</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7707</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8213</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8438</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8602</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8888</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9049</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9195</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9389</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9615</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>9546</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E655-4B27-A54A-72887C60A99E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>240 kPa E20 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$AB$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>4301</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5390</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5319</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5398</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5681</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6116</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6163</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6472</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6700</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6051</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6600</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6688</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7285</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7920</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8196</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8403</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8474</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8583</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8695</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8771</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8968</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9111</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>9302</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>9478</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9638</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>9803</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9900</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AD1D-4323-8FBC-82BAAA9636DD}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2358,18 +2528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90606A4-C663-4C46-8917-6C946987C1D5}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H44" sqref="B44:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2625,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2541,7 +2711,7 @@
         <v>8714</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2624,7 +2794,7 @@
         <v>8230</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2710,7 +2880,7 @@
         <v>9950</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2796,7 +2966,7 @@
         <v>10126</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2882,7 +3052,7 @@
         <v>9324</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2968,7 +3138,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3051,7 +3221,7 @@
         <v>9546</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3135,6 +3305,218 @@
       </c>
       <c r="AB9">
         <v>9900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3883</v>
+      </c>
+      <c r="C10">
+        <v>5312</v>
+      </c>
+      <c r="D10">
+        <v>4813</v>
+      </c>
+      <c r="E10">
+        <v>5657</v>
+      </c>
+      <c r="F10">
+        <v>5442</v>
+      </c>
+      <c r="G10">
+        <v>6088</v>
+      </c>
+      <c r="H10">
+        <v>6191</v>
+      </c>
+      <c r="I10">
+        <v>5625</v>
+      </c>
+      <c r="J10">
+        <v>5610</v>
+      </c>
+      <c r="K10">
+        <v>5788</v>
+      </c>
+      <c r="L10">
+        <v>5970</v>
+      </c>
+      <c r="M10">
+        <v>6250</v>
+      </c>
+      <c r="N10">
+        <v>6379</v>
+      </c>
+      <c r="O10">
+        <v>7168</v>
+      </c>
+      <c r="P10">
+        <v>7662</v>
+      </c>
+      <c r="Q10">
+        <v>8097</v>
+      </c>
+      <c r="R10">
+        <v>8350</v>
+      </c>
+      <c r="S10">
+        <v>8474</v>
+      </c>
+      <c r="T10">
+        <v>8474</v>
+      </c>
+      <c r="U10">
+        <v>8583</v>
+      </c>
+      <c r="V10">
+        <v>8810</v>
+      </c>
+      <c r="W10">
+        <v>9049</v>
+      </c>
+      <c r="X10">
+        <v>9302</v>
+      </c>
+      <c r="Y10">
+        <v>9478</v>
+      </c>
+      <c r="Z10">
+        <v>9708</v>
+      </c>
+      <c r="AA10">
+        <v>9950</v>
+      </c>
+      <c r="AB10">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" ref="B40:G40" si="0" xml:space="preserve"> 1 - ( B41 / 100)</f>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H40">
+        <f xml:space="preserve"> 1 - ( H41 / 100)</f>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D41">
+        <v>1.6666666666666661</v>
+      </c>
+      <c r="E41">
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="F41">
+        <v>3.3333333333333321</v>
+      </c>
+      <c r="G41">
+        <v>4.1666666666666652</v>
+      </c>
+      <c r="H41">
+        <v>4.9999999999999982</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>157.623123168945</v>
+      </c>
+      <c r="D42">
+        <v>166.59750366210901</v>
+      </c>
+      <c r="E42">
+        <v>176.12217712402301</v>
+      </c>
+      <c r="F42">
+        <v>186.207107543945</v>
+      </c>
+      <c r="G42">
+        <v>197.41261291503901</v>
+      </c>
+      <c r="H42">
+        <v>209.72866821289</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>149.22898864746</v>
+      </c>
+      <c r="C44">
+        <v>157.63311767578099</v>
+      </c>
+      <c r="D44">
+        <v>166.59750366210901</v>
+      </c>
+      <c r="E44">
+        <v>176.12217712402301</v>
+      </c>
+      <c r="F44">
+        <v>186.207107543945</v>
+      </c>
+      <c r="G44">
+        <v>197.41261291503901</v>
+      </c>
+      <c r="H44">
+        <v>209.73866271972599</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>B44*B40</f>
+        <v>149.22898864746</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:H45" si="1">C44*C40</f>
+        <v>156.31950836181616</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>163.82087860107387</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>171.71912269592244</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>180.00020395914683</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>189.18708737691239</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>199.25172958373972</v>
       </c>
     </row>
   </sheetData>
